--- a/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:22:41+00:00</t>
+    <t>2025-08-01T06:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:26:01+00:00</t>
+    <t>2025-08-01T06:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:39:39+00:00</t>
+    <t>2025-12-19T08:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-human-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -347,7 +347,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>
@@ -382,7 +382,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
@@ -474,7 +474,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>XPN.5</t>
@@ -501,7 +501,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>XPN/4</t>
@@ -856,7 +856,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="33.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -871,7 +871,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="37.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="91.87890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
